--- a/H_results2.xlsx
+++ b/H_results2.xlsx
@@ -509,7 +509,7 @@
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>8509.720420268583</v>
+        <v>6791.342860516058</v>
       </c>
       <c r="H2" t="n">
         <v>17550.68204641592</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -581,7 +581,7 @@
         <v>20575.46131808642</v>
       </c>
       <c r="G4" t="n">
-        <v>17094.7536306427</v>
+        <v>18061.20503683716</v>
       </c>
       <c r="H4" t="n">
         <v>20575.34399756911</v>
@@ -653,7 +653,7 @@
         <v>23975.76916397665</v>
       </c>
       <c r="G6" t="n">
-        <v>22231.83681584428</v>
+        <v>21985.98407446607</v>
       </c>
       <c r="H6" t="n">
         <v>23973.99886340679</v>
@@ -725,7 +725,7 @@
         <v>16485.3525975895</v>
       </c>
       <c r="G8" t="n">
-        <v>6195.470518539567</v>
+        <v>4511.590843914633</v>
       </c>
       <c r="H8" t="n">
         <v>16487.13669997498</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0.5923684558414695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5257431468709437</v>
+        <v>0.4977891304787667</v>
       </c>
       <c r="H10" t="n">
         <v>0.592108545773244</v>
@@ -869,7 +869,7 @@
         <v>0.5863975080012351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5796809973993206</v>
+        <v>0.5770194927500979</v>
       </c>
       <c r="H12" t="n">
         <v>0.5864200361333221</v>
@@ -938,10 +938,10 @@
         <v>0.8386933780734945</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5709397031663825</v>
+        <v>0.5709397031663824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5545366382550266</v>
+        <v>0.552088164018942</v>
       </c>
       <c r="H14" t="n">
         <v>0.5705992003002501</v>
@@ -1013,7 +1013,7 @@
         <v>0.6090467270945127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4926898300173492</v>
+        <v>0.4090653098059532</v>
       </c>
       <c r="H16" t="n">
         <v>0.6082247209034977</v>
@@ -1085,7 +1085,7 @@
         <v>0.5210518335837945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4238204747057719</v>
+        <v>0.4219617654684381</v>
       </c>
       <c r="H18" t="n">
         <v>0.521031863078782</v>
@@ -1157,7 +1157,7 @@
         <v>0.525968655068758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4968201550943907</v>
+        <v>0.5175019391602956</v>
       </c>
       <c r="H20" t="n">
         <v>0.5259617231271564</v>
@@ -1193,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>0.5372441699676417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5480300352097685</v>
+        <v>0.5500063912979563</v>
       </c>
       <c r="H22" t="n">
         <v>0.5376338369715714</v>
@@ -1301,7 +1301,7 @@
         <v>0.5165263286216938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5124450100664013</v>
+        <v>0.5912973920961522</v>
       </c>
       <c r="H24" t="n">
         <v>0.5167976142366348</v>
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>

--- a/H_results2.xlsx
+++ b/H_results2.xlsx
@@ -509,7 +509,7 @@
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>6791.342860516058</v>
+        <v>6788.088191908992</v>
       </c>
       <c r="H2" t="n">
         <v>17550.68204641592</v>
@@ -581,7 +581,7 @@
         <v>20575.46131808642</v>
       </c>
       <c r="G4" t="n">
-        <v>18061.20503683716</v>
+        <v>17086.97919129642</v>
       </c>
       <c r="H4" t="n">
         <v>20575.34399756911</v>
@@ -653,7 +653,7 @@
         <v>23975.76916397665</v>
       </c>
       <c r="G6" t="n">
-        <v>21985.98407446607</v>
+        <v>22231.83681584428</v>
       </c>
       <c r="H6" t="n">
         <v>23973.99886340679</v>
@@ -725,7 +725,7 @@
         <v>16485.3525975895</v>
       </c>
       <c r="G8" t="n">
-        <v>4511.590843914633</v>
+        <v>6198.711515966546</v>
       </c>
       <c r="H8" t="n">
         <v>16487.13669997498</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0.5923684558414695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4977891304787667</v>
+        <v>0.4978133868217219</v>
       </c>
       <c r="H10" t="n">
         <v>0.592108545773244</v>
@@ -869,7 +869,7 @@
         <v>0.5863975080012351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5770194927500979</v>
+        <v>0.5797070920391136</v>
       </c>
       <c r="H12" t="n">
         <v>0.5864200361333221</v>
@@ -938,10 +938,10 @@
         <v>0.8386933780734945</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5709397031663824</v>
+        <v>0.5709397031663825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.552088164018942</v>
+        <v>0.5545366382550266</v>
       </c>
       <c r="H14" t="n">
         <v>0.5705992003002501</v>
@@ -1013,7 +1013,7 @@
         <v>0.6090467270945127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4090653098059532</v>
+        <v>0.4927461019866803</v>
       </c>
       <c r="H16" t="n">
         <v>0.6082247209034977</v>
@@ -1085,7 +1085,7 @@
         <v>0.5210518335837945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4219617654684381</v>
+        <v>0.4218885172214436</v>
       </c>
       <c r="H18" t="n">
         <v>0.521031863078782</v>
@@ -1157,7 +1157,7 @@
         <v>0.525968655068758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5175019391602956</v>
+        <v>0.4965821404509979</v>
       </c>
       <c r="H20" t="n">
         <v>0.5259617231271564</v>
@@ -1193,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>0.5372441699676417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5500063912979563</v>
+        <v>0.5480300352097685</v>
       </c>
       <c r="H22" t="n">
         <v>0.5376338369715714</v>
@@ -1301,7 +1301,7 @@
         <v>0.5165263286216938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5912973920961522</v>
+        <v>0.5123615864059685</v>
       </c>
       <c r="H24" t="n">
         <v>0.5167976142366348</v>
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
         <v>3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
